--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서2.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서2.xlsx
@@ -1,43 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이형준\Desktop\EzenCrowdFunding\기능 정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E934B7-7E77-4D4F-ABFB-0639A7EAFEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21633" windowHeight="11665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="21636" windowHeight="11664"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mi6DiWTCXz4A8VU66IOZAmpu+7wtg=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -249,14 +236,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>강연장 정보 확인 페이지에서 해당 강연장 링크를 클릭하여 강연장 예약 가능, 날짜 선택, 시간대 선택하여 예약</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>강연 주최</t>
-  </si>
-  <si>
-    <t>강연 이름, 내용 등 정보 입력하여 강연 등록</t>
   </si>
   <si>
     <t>강연확인 및 강연 예약</t>
@@ -277,10 +257,6 @@
   </si>
   <si>
     <t>강연 참가 예약</t>
-  </si>
-  <si>
-    <t>강연 정보를 확인하는 페이지에서 강연 정보를 확인한 후, 인원 수, 좌석을 선택한 후 예약</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HT – P - 009</t>
@@ -376,46 +352,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>강연장 관련</t>
-  </si>
-  <si>
     <t>대관 시설 관리</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>대관 시설 설명 업데이트</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>대관 시설 예약 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>시설</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 예약자 확인 및 수정</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>강연 관련</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>강연 예약 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 강연 예약자 및 좌석확인</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -453,11 +394,141 @@
   <si>
     <t>메인 화면</t>
   </si>
+  <si>
+    <t>무통장입금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 이름, 내용 등 정보 입력하여 강연 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 정보 확인 페이지에서 해당 강연장 링크를 클릭하여 강연장 예약 가능, 날짜 선택, 시간대 선택하여 예약 및 결제, 결제 상태 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 정보를 확인하는 페이지에서 강연 정보를 확인한 후, 인원 수, 좌석을 선택한 후 예약 및 결제, 결제 상태 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 시설 예약 및 결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 참가 예약 관리 및 결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설 예약자 확인 및 수정, 결제 상태 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 강연 예약자 및 좌석확인, 결제 상태 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 참가 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장 예약 및 주최 강연 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 시스템 프로세스에 대한 정보 모으기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 문의하기</t>
+  </si>
+  <si>
+    <t>등록된 세미나(행사)의 내용 및 참석에 관한 문의사항을 세미나(행사) 상세 내용 페이지 아래에 댓글 형식으로 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 문의에 답변하기</t>
+  </si>
+  <si>
+    <t>세미나(행사)주최 회원은 마이페이지에서 답변 등록 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강연장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대관</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 주최자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 참가자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>통일할 이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 대여</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나호스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나게스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -566,7 +637,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,8 +662,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -778,32 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -819,26 +876,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -847,61 +884,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -930,9 +917,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,9 +944,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,9 +959,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,58 +971,64 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,77 +1052,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,32 +1329,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG990"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="87.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="87.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -1390,7 +1364,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1412,26 +1386,25 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" ht="19.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1449,24 +1422,23 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1484,9 +1456,8 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="1:33" ht="19.5" hidden="1" customHeight="1">
+    </row>
+    <row r="4" spans="1:32" ht="19.5" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1497,7 +1468,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1519,14 +1490,13 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:33" ht="50.25" hidden="1" customHeight="1">
+    </row>
+    <row r="5" spans="1:32" ht="50.25" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>43860</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
@@ -1536,7 +1506,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1558,9 +1528,8 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:33" ht="19.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:32" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -1571,7 +1540,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1593,49 +1562,48 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="55" t="s">
+    </row>
+    <row r="7" spans="1:32" ht="27.75" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="M7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="N7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="O7" s="38" t="s">
         <v>13</v>
       </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1652,35 +1620,36 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="20">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="20">
-        <v>43858</v>
-      </c>
-      <c r="I8" s="20">
-        <v>43859</v>
-      </c>
-      <c r="J8" s="20">
-        <v>43860</v>
-      </c>
-      <c r="K8" s="20">
-        <v>43861</v>
-      </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
+    </row>
+    <row r="8" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1697,37 +1666,36 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="5">
+    </row>
+    <row r="9" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="5">
         <v>1</v>
       </c>
+      <c r="N9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="O9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1744,37 +1712,34 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="10" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8">
+        <v>2</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1791,35 +1756,34 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7"/>
+    </row>
+    <row r="11" spans="1:32" ht="42.75" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="56"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8">
-        <v>2</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1836,35 +1800,28 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="1:33" ht="42.75" customHeight="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7"/>
+    </row>
+    <row r="12" spans="1:32" ht="33.75" customHeight="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="56"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1881,29 +1838,36 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="1:33" ht="33.75" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7"/>
+    </row>
+    <row r="13" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="56"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
+        <v>2</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1920,37 +1884,28 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7"/>
+    </row>
+    <row r="14" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="56"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="24"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1967,29 +1922,28 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7"/>
+    </row>
+    <row r="15" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A15" s="62"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="56"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="24"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2006,29 +1960,28 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="31" t="s">
+    </row>
+    <row r="16" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="D16" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="56"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="8"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2045,29 +1998,36 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="18" t="s">
+    </row>
+    <row r="17" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="D17" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="56"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2084,37 +2044,34 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="7"/>
+    </row>
+    <row r="18" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="56"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8">
-        <v>1</v>
+      <c r="I18" s="33"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8">
+        <v>2</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2131,35 +2088,34 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8">
-        <v>2</v>
+    </row>
+    <row r="19" spans="1:32" ht="28.8" customHeight="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="29">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2176,29 +2132,34 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+    </row>
+    <row r="20" spans="1:32" ht="28.8" customHeight="1">
+      <c r="A20" s="62"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="29">
+        <v>2</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2215,37 +2176,28 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
+    </row>
+    <row r="21" spans="1:32" ht="28.8" customHeight="1">
+      <c r="A21" s="62"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -2262,35 +2214,36 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
+    </row>
+    <row r="22" spans="1:32" ht="28.8" customHeight="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -2307,33 +2260,34 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A23" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="5"/>
+    </row>
+    <row r="23" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A23" s="62"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2350,35 +2304,32 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="8">
-        <v>3</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="5"/>
+    </row>
+    <row r="24" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A24" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2395,35 +2346,34 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="8">
+    </row>
+    <row r="25" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="8">
         <v>3</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" s="3"/>
+      <c r="N25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2440,31 +2390,34 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+    </row>
+    <row r="26" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A26" s="62"/>
+      <c r="B26" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="8">
+        <v>3</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2481,29 +2434,30 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="1:33" ht="33.200000000000003" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+    </row>
+    <row r="27" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="61"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2520,26 +2474,27 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="1:33" ht="45.75" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+    </row>
+    <row r="28" spans="1:32" ht="33.15" customHeight="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2557,22 +2512,24 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="1:33" ht="44.1" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>80</v>
+    </row>
+    <row r="29" spans="1:32" ht="45.75" customHeight="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="M29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2592,24 +2549,21 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="1:33" ht="52.5" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>83</v>
+    </row>
+    <row r="30" spans="1:32" ht="44.1" customHeight="1">
+      <c r="A30" s="62"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>91</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2630,20 +2584,23 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    </row>
+    <row r="31" spans="1:32" ht="52.5" customHeight="1">
+      <c r="A31" s="62"/>
+      <c r="B31" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2665,9 +2622,8 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -2677,7 +2633,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2698,23 +2655,24 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2735,23 +2693,22 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2772,12 +2729,9 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2785,10 +2739,10 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2809,12 +2763,9 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:32" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2822,10 +2773,10 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2846,12 +2797,9 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-    </row>
-    <row r="37" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2859,10 +2807,10 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2883,12 +2831,9 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-    </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:32" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2896,7 +2841,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2918,9 +2863,8 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:32" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
@@ -2931,7 +2875,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2953,12 +2897,13 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
-    </row>
-    <row r="40" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:32" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2966,7 +2911,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2988,12 +2933,15 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-    </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3001,7 +2949,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3023,12 +2971,15 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-    </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3036,7 +2987,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3058,12 +3009,15 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:32" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3071,7 +3025,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3093,12 +3047,15 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-    </row>
-    <row r="44" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:32" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3106,7 +3063,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3128,12 +3085,15 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-    </row>
-    <row r="45" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3141,7 +3101,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3163,9 +3123,8 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-    </row>
-    <row r="46" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
@@ -3176,7 +3135,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3198,9 +3157,8 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="1"/>
-    </row>
-    <row r="47" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
@@ -3211,7 +3169,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3233,9 +3191,8 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-    </row>
-    <row r="48" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
@@ -3246,7 +3203,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3268,9 +3225,8 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-    </row>
-    <row r="49" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -3281,7 +3237,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3303,9 +3259,8 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
@@ -3316,7 +3271,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3338,9 +3293,8 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-    </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
@@ -3351,7 +3305,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3373,9 +3327,8 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-    </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
@@ -3386,7 +3339,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -3408,9 +3361,8 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-    </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:32" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -3421,7 +3373,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -3443,9 +3395,8 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-    </row>
-    <row r="54" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:32" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
@@ -3456,7 +3407,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -3478,9 +3429,8 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-    </row>
-    <row r="55" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:32" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
@@ -3491,7 +3441,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -3513,9 +3463,8 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:32" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -3526,7 +3475,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -3548,9 +3497,8 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-    </row>
-    <row r="57" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:32" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
@@ -3561,7 +3509,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3583,9 +3531,8 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-    </row>
-    <row r="58" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:32" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
@@ -3596,7 +3543,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3618,9 +3565,8 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-    </row>
-    <row r="59" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:32" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
@@ -3631,7 +3577,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -3653,9 +3599,8 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:32" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
@@ -3666,7 +3611,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -3688,9 +3633,8 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:32" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
@@ -3701,7 +3645,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -3723,9 +3667,8 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-    </row>
-    <row r="62" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:32" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
@@ -3736,7 +3679,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -3758,9 +3701,8 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-    </row>
-    <row r="63" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:32" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
@@ -3771,7 +3713,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3793,9 +3735,8 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-    </row>
-    <row r="64" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:32" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
@@ -3806,7 +3747,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -3828,9 +3769,8 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-    </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:32" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
@@ -3841,7 +3781,7 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -3863,9 +3803,8 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-    </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:32" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
@@ -3876,7 +3815,7 @@
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -3898,9 +3837,8 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-    </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:32" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
@@ -3911,7 +3849,7 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -3933,9 +3871,8 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-    </row>
-    <row r="68" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:32" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
@@ -3946,7 +3883,7 @@
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -3968,9 +3905,8 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-    </row>
-    <row r="69" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:32" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
@@ -3981,7 +3917,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -4003,9 +3939,8 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
-      <c r="AG69" s="1"/>
-    </row>
-    <row r="70" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:32" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
@@ -4016,7 +3951,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4038,9 +3973,8 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
-      <c r="AG70" s="1"/>
-    </row>
-    <row r="71" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:32" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
@@ -4051,7 +3985,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -4073,9 +4007,8 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-    </row>
-    <row r="72" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:32" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
@@ -4086,7 +4019,7 @@
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -4108,9 +4041,8 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
-      <c r="AG72" s="1"/>
-    </row>
-    <row r="73" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:32" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
@@ -4121,7 +4053,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4143,9 +4075,8 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-    </row>
-    <row r="74" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:32" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
@@ -4156,7 +4087,7 @@
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -4178,9 +4109,8 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-    </row>
-    <row r="75" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:32" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -4191,7 +4121,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4213,9 +4143,8 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
-    </row>
-    <row r="76" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:32" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -4226,7 +4155,7 @@
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4248,9 +4177,8 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
-      <c r="AG76" s="1"/>
-    </row>
-    <row r="77" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:32" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -4261,7 +4189,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -4283,9 +4211,8 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-    </row>
-    <row r="78" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:32" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -4296,7 +4223,7 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -4318,9 +4245,8 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-    </row>
-    <row r="79" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:32" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -4331,7 +4257,7 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4353,9 +4279,8 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-    </row>
-    <row r="80" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:32" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -4366,7 +4291,7 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -4388,9 +4313,8 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-    </row>
-    <row r="81" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:32" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -4401,7 +4325,7 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -4423,9 +4347,8 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-    </row>
-    <row r="82" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:32" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -4436,7 +4359,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -4458,9 +4381,8 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
-      <c r="AG82" s="1"/>
-    </row>
-    <row r="83" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:32" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -4471,7 +4393,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
+      <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -4493,9 +4415,8 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-    </row>
-    <row r="84" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:32" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -4506,7 +4427,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
+      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -4528,9 +4449,8 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-    </row>
-    <row r="85" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:32" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -4541,7 +4461,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
+      <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -4563,9 +4483,8 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-    </row>
-    <row r="86" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:32" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -4576,7 +4495,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
+      <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -4598,9 +4517,8 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-    </row>
-    <row r="87" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:32" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -4611,7 +4529,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
+      <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -4633,9 +4551,8 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-    </row>
-    <row r="88" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:32" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -4646,7 +4563,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -4668,9 +4585,8 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-    </row>
-    <row r="89" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:32" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -4681,7 +4597,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
+      <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -4703,9 +4619,8 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-    </row>
-    <row r="90" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:32" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -4716,7 +4631,7 @@
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -4738,9 +4653,8 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-    </row>
-    <row r="91" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:32" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -4751,7 +4665,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -4773,9 +4687,8 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-    </row>
-    <row r="92" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:32" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -4786,7 +4699,7 @@
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -4808,9 +4721,8 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-    </row>
-    <row r="93" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:32" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -4821,7 +4733,7 @@
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -4843,9 +4755,8 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-    </row>
-    <row r="94" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:32" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -4856,7 +4767,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -4878,9 +4789,8 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-    </row>
-    <row r="95" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:32" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4891,7 +4801,7 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -4913,9 +4823,8 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
-      <c r="AG95" s="1"/>
-    </row>
-    <row r="96" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:32" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -4926,7 +4835,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -4948,9 +4857,8 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
-      <c r="AG96" s="1"/>
-    </row>
-    <row r="97" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:32" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -4961,7 +4869,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -4983,9 +4891,8 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-    </row>
-    <row r="98" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="1:32" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -4996,7 +4903,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -5018,9 +4925,8 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-    </row>
-    <row r="99" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="1:32" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -5031,7 +4937,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -5053,9 +4959,8 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-    </row>
-    <row r="100" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="1:32" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -5066,7 +4971,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -5088,9 +4993,8 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-    </row>
-    <row r="101" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="1:32" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -5101,7 +5005,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -5123,9 +5027,8 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
-      <c r="AG101" s="1"/>
-    </row>
-    <row r="102" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="1:32" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -5136,7 +5039,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
+      <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -5158,9 +5061,8 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
-      <c r="AG102" s="1"/>
-    </row>
-    <row r="103" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="1:32" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -5171,7 +5073,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -5193,9 +5095,8 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
-    </row>
-    <row r="104" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="1:32" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -5206,7 +5107,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -5228,9 +5129,8 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-    </row>
-    <row r="105" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="1:32" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -5241,7 +5141,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -5263,9 +5163,8 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
-      <c r="AG105" s="1"/>
-    </row>
-    <row r="106" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:32" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -5276,7 +5175,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -5298,9 +5197,8 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
-      <c r="AG106" s="1"/>
-    </row>
-    <row r="107" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="1:32" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -5311,7 +5209,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -5333,9 +5231,8 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
-    </row>
-    <row r="108" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:32" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -5346,7 +5243,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
@@ -5368,9 +5265,8 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
-      <c r="AG108" s="1"/>
-    </row>
-    <row r="109" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="1:32" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -5381,7 +5277,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
@@ -5403,9 +5299,8 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
-      <c r="AG109" s="1"/>
-    </row>
-    <row r="110" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="1:32" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -5416,7 +5311,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
@@ -5438,9 +5333,8 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
-      <c r="AG110" s="1"/>
-    </row>
-    <row r="111" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="1:32" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -5451,7 +5345,7 @@
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
+      <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
@@ -5473,9 +5367,8 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
-      <c r="AG111" s="1"/>
-    </row>
-    <row r="112" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="1:32" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -5486,7 +5379,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
+      <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
@@ -5508,9 +5401,8 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
-      <c r="AG112" s="1"/>
-    </row>
-    <row r="113" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="1:32" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -5521,7 +5413,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
+      <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -5543,9 +5435,8 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
-      <c r="AG113" s="1"/>
-    </row>
-    <row r="114" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="1:32" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -5556,7 +5447,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
+      <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
@@ -5578,9 +5469,8 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
-      <c r="AG114" s="1"/>
-    </row>
-    <row r="115" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="1:32" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -5591,7 +5481,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
@@ -5613,9 +5503,8 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
-      <c r="AG115" s="1"/>
-    </row>
-    <row r="116" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="1:32" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -5626,7 +5515,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -5648,9 +5537,8 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
-      <c r="AG116" s="1"/>
-    </row>
-    <row r="117" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:32" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -5661,7 +5549,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
@@ -5683,9 +5571,8 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
-      <c r="AG117" s="1"/>
-    </row>
-    <row r="118" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="1:32" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -5696,7 +5583,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -5718,9 +5605,8 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
-      <c r="AG118" s="1"/>
-    </row>
-    <row r="119" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="1:32" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -5731,7 +5617,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -5753,9 +5639,8 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
-      <c r="AG119" s="1"/>
-    </row>
-    <row r="120" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="1:32" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -5766,7 +5651,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
+      <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -5788,9 +5673,8 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
-      <c r="AG120" s="1"/>
-    </row>
-    <row r="121" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="1:32" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -5801,7 +5685,7 @@
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
+      <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -5823,9 +5707,8 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
-      <c r="AG121" s="1"/>
-    </row>
-    <row r="122" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="1:32" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -5836,7 +5719,7 @@
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
+      <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -5858,9 +5741,8 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
-      <c r="AG122" s="1"/>
-    </row>
-    <row r="123" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="1:32" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -5871,7 +5753,7 @@
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
+      <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -5893,9 +5775,8 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
-      <c r="AG123" s="1"/>
-    </row>
-    <row r="124" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="1:32" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -5906,7 +5787,7 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
+      <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -5928,9 +5809,8 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
-      <c r="AG124" s="1"/>
-    </row>
-    <row r="125" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:32" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -5941,7 +5821,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
+      <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -5963,9 +5843,8 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
-      <c r="AG125" s="1"/>
-    </row>
-    <row r="126" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="1:32" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -5976,7 +5855,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
+      <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -5998,9 +5877,8 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
-      <c r="AG126" s="1"/>
-    </row>
-    <row r="127" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="1:32" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -6011,7 +5889,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
+      <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -6033,9 +5911,8 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
-      <c r="AG127" s="1"/>
-    </row>
-    <row r="128" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="1:32" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -6046,7 +5923,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
+      <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -6068,9 +5945,8 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
-      <c r="AG128" s="1"/>
-    </row>
-    <row r="129" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="1:32" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -6081,7 +5957,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
+      <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -6103,9 +5979,8 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1"/>
-    </row>
-    <row r="130" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:32" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -6116,7 +5991,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
+      <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -6138,9 +6013,8 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
-      <c r="AG130" s="1"/>
-    </row>
-    <row r="131" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:32" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -6151,7 +6025,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
+      <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -6173,9 +6047,8 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
-      <c r="AG131" s="1"/>
-    </row>
-    <row r="132" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:32" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -6186,7 +6059,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
+      <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -6208,9 +6081,8 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
-    </row>
-    <row r="133" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="1:32" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -6221,7 +6093,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -6243,9 +6115,8 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
-      <c r="AG133" s="1"/>
-    </row>
-    <row r="134" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:32" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -6256,7 +6127,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
+      <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -6278,9 +6149,8 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
-      <c r="AG134" s="1"/>
-    </row>
-    <row r="135" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:32" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -6291,7 +6161,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
+      <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -6313,9 +6183,8 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
-      <c r="AG135" s="1"/>
-    </row>
-    <row r="136" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:32" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -6326,7 +6195,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
+      <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -6348,9 +6217,8 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
-      <c r="AG136" s="1"/>
-    </row>
-    <row r="137" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:32" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -6361,7 +6229,7 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
+      <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -6383,9 +6251,8 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
-      <c r="AG137" s="1"/>
-    </row>
-    <row r="138" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:32" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -6396,7 +6263,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
+      <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -6418,9 +6285,8 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
-      <c r="AG138" s="1"/>
-    </row>
-    <row r="139" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:32" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -6431,7 +6297,7 @@
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
+      <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -6453,9 +6319,8 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
-      <c r="AG139" s="1"/>
-    </row>
-    <row r="140" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:32" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -6466,7 +6331,7 @@
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
+      <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -6488,9 +6353,8 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
-      <c r="AG140" s="1"/>
-    </row>
-    <row r="141" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:32" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -6501,7 +6365,7 @@
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
+      <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -6523,9 +6387,8 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
-      <c r="AG141" s="1"/>
-    </row>
-    <row r="142" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:32" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -6536,7 +6399,7 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
+      <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -6558,9 +6421,8 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
-      <c r="AG142" s="1"/>
-    </row>
-    <row r="143" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:32" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -6571,7 +6433,7 @@
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
+      <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -6593,9 +6455,8 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
-      <c r="AG143" s="1"/>
-    </row>
-    <row r="144" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:32" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -6606,7 +6467,7 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -6628,9 +6489,8 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
-      <c r="AG144" s="1"/>
-    </row>
-    <row r="145" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="1:32" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -6641,7 +6501,7 @@
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
+      <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -6663,9 +6523,8 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
-      <c r="AG145" s="1"/>
-    </row>
-    <row r="146" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:32" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -6676,7 +6535,7 @@
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
+      <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -6698,9 +6557,8 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
-      <c r="AG146" s="1"/>
-    </row>
-    <row r="147" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:32" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -6711,7 +6569,7 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
+      <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -6733,9 +6591,8 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
-      <c r="AG147" s="1"/>
-    </row>
-    <row r="148" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:32" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -6746,7 +6603,7 @@
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
+      <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
@@ -6768,9 +6625,8 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
-      <c r="AG148" s="1"/>
-    </row>
-    <row r="149" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:32" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -6781,7 +6637,7 @@
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
+      <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -6803,9 +6659,8 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
-      <c r="AG149" s="1"/>
-    </row>
-    <row r="150" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:32" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -6816,7 +6671,7 @@
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
+      <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -6838,9 +6693,8 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
-      <c r="AG150" s="1"/>
-    </row>
-    <row r="151" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:32" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -6851,7 +6705,7 @@
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
+      <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
@@ -6873,9 +6727,8 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
-      <c r="AG151" s="1"/>
-    </row>
-    <row r="152" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:32" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -6886,7 +6739,7 @@
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
+      <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -6908,9 +6761,8 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
-      <c r="AG152" s="1"/>
-    </row>
-    <row r="153" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:32" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -6921,7 +6773,7 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
+      <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
@@ -6943,9 +6795,8 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
-      <c r="AG153" s="1"/>
-    </row>
-    <row r="154" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:32" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -6956,7 +6807,7 @@
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
@@ -6978,9 +6829,8 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
-      <c r="AG154" s="1"/>
-    </row>
-    <row r="155" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:32" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -6991,7 +6841,7 @@
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
@@ -7013,9 +6863,8 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
-      <c r="AG155" s="1"/>
-    </row>
-    <row r="156" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="1:32" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -7026,7 +6875,7 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
+      <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
@@ -7048,9 +6897,8 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
-      <c r="AG156" s="1"/>
-    </row>
-    <row r="157" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="1:32" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -7061,7 +6909,7 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
+      <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -7083,9 +6931,8 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
-      <c r="AG157" s="1"/>
-    </row>
-    <row r="158" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="1:32" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -7096,7 +6943,7 @@
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
+      <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
@@ -7118,9 +6965,8 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
-      <c r="AG158" s="1"/>
-    </row>
-    <row r="159" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="1:32" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -7131,7 +6977,7 @@
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
+      <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
@@ -7153,9 +6999,8 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
-      <c r="AG159" s="1"/>
-    </row>
-    <row r="160" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="1:32" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -7166,7 +7011,7 @@
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
+      <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
@@ -7188,9 +7033,8 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1"/>
-    </row>
-    <row r="161" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="1:32" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -7201,7 +7045,7 @@
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
+      <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
@@ -7223,9 +7067,8 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
-      <c r="AG161" s="1"/>
-    </row>
-    <row r="162" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="1:32" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -7236,7 +7079,7 @@
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
+      <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
@@ -7258,9 +7101,8 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
-      <c r="AG162" s="1"/>
-    </row>
-    <row r="163" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="1:32" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -7271,7 +7113,7 @@
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
+      <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
@@ -7293,9 +7135,8 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
-      <c r="AG163" s="1"/>
-    </row>
-    <row r="164" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="1:32" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -7306,7 +7147,7 @@
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
+      <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
@@ -7328,9 +7169,8 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
-      <c r="AG164" s="1"/>
-    </row>
-    <row r="165" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:32" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -7341,7 +7181,7 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
+      <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
@@ -7363,9 +7203,8 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
-      <c r="AG165" s="1"/>
-    </row>
-    <row r="166" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="1:32" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -7376,7 +7215,7 @@
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
+      <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -7398,9 +7237,8 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
-      <c r="AG166" s="1"/>
-    </row>
-    <row r="167" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="1:32" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -7411,7 +7249,7 @@
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
+      <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -7433,9 +7271,8 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
-      <c r="AG167" s="1"/>
-    </row>
-    <row r="168" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="1:32" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -7446,7 +7283,7 @@
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
+      <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -7468,9 +7305,8 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
-      <c r="AG168" s="1"/>
-    </row>
-    <row r="169" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="1:32" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -7481,7 +7317,7 @@
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
+      <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -7503,9 +7339,8 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
-    </row>
-    <row r="170" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:32" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -7516,7 +7351,7 @@
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
+      <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -7538,9 +7373,8 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
-    </row>
-    <row r="171" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:32" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -7551,7 +7385,7 @@
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
+      <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -7573,9 +7407,8 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
-    </row>
-    <row r="172" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="1:32" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -7586,7 +7419,7 @@
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
+      <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -7608,9 +7441,8 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
-      <c r="AG172" s="1"/>
-    </row>
-    <row r="173" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="1:32" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -7621,7 +7453,7 @@
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
+      <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -7643,9 +7475,8 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="1"/>
-    </row>
-    <row r="174" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="1:32" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -7656,7 +7487,7 @@
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
+      <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
@@ -7678,9 +7509,8 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
-      <c r="AG174" s="1"/>
-    </row>
-    <row r="175" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="1:32" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -7691,7 +7521,7 @@
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
+      <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -7713,9 +7543,8 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
-      <c r="AG175" s="1"/>
-    </row>
-    <row r="176" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="1:32" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -7726,7 +7555,7 @@
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
+      <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -7748,9 +7577,8 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
       <c r="AF176" s="1"/>
-      <c r="AG176" s="1"/>
-    </row>
-    <row r="177" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="1:32" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -7761,7 +7589,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
+      <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -7783,9 +7611,8 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
-      <c r="AG177" s="1"/>
-    </row>
-    <row r="178" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="1:32" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -7796,7 +7623,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
+      <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
@@ -7818,9 +7645,8 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
-      <c r="AG178" s="1"/>
-    </row>
-    <row r="179" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="1:32" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -7831,7 +7657,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
+      <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
@@ -7853,9 +7679,8 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
-      <c r="AG179" s="1"/>
-    </row>
-    <row r="180" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="1:32" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -7866,7 +7691,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
+      <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -7888,9 +7713,8 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
       <c r="AF180" s="1"/>
-      <c r="AG180" s="1"/>
-    </row>
-    <row r="181" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="1:32" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -7901,7 +7725,7 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
+      <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -7923,9 +7747,8 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
-      <c r="AG181" s="1"/>
-    </row>
-    <row r="182" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="1:32" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -7936,7 +7759,7 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
+      <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -7958,9 +7781,8 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
-      <c r="AG182" s="1"/>
-    </row>
-    <row r="183" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="1:32" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -7971,7 +7793,7 @@
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
+      <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
@@ -7993,9 +7815,8 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
-      <c r="AG183" s="1"/>
-    </row>
-    <row r="184" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="1:32" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -8006,7 +7827,7 @@
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
+      <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -8028,9 +7849,8 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
-      <c r="AG184" s="1"/>
-    </row>
-    <row r="185" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:32" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -8041,7 +7861,7 @@
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
+      <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -8063,9 +7883,8 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
-      <c r="AG185" s="1"/>
-    </row>
-    <row r="186" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="1:32" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -8076,7 +7895,7 @@
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
+      <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -8098,9 +7917,8 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
       <c r="AF186" s="1"/>
-      <c r="AG186" s="1"/>
-    </row>
-    <row r="187" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:32" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -8111,7 +7929,7 @@
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
+      <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -8133,9 +7951,8 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
       <c r="AF187" s="1"/>
-      <c r="AG187" s="1"/>
-    </row>
-    <row r="188" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="1:32" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -8146,7 +7963,7 @@
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
-      <c r="K188" s="2"/>
+      <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -8168,9 +7985,8 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
-      <c r="AG188" s="1"/>
-    </row>
-    <row r="189" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="1:32" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -8181,7 +7997,7 @@
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
+      <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -8203,9 +8019,8 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
-      <c r="AG189" s="1"/>
-    </row>
-    <row r="190" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="1:32" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -8216,7 +8031,7 @@
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
+      <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -8238,9 +8053,8 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
-      <c r="AG190" s="1"/>
-    </row>
-    <row r="191" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="1:32" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -8251,7 +8065,7 @@
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
+      <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -8273,9 +8087,8 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
       <c r="AF191" s="1"/>
-      <c r="AG191" s="1"/>
-    </row>
-    <row r="192" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="1:32" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -8286,7 +8099,7 @@
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
+      <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -8308,9 +8121,8 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
       <c r="AF192" s="1"/>
-      <c r="AG192" s="1"/>
-    </row>
-    <row r="193" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="1:32" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -8321,7 +8133,7 @@
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
+      <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -8343,9 +8155,8 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
       <c r="AF193" s="1"/>
-      <c r="AG193" s="1"/>
-    </row>
-    <row r="194" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="194" spans="1:32" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -8356,7 +8167,7 @@
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
+      <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -8378,9 +8189,8 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
       <c r="AF194" s="1"/>
-      <c r="AG194" s="1"/>
-    </row>
-    <row r="195" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:32" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -8391,7 +8201,7 @@
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
+      <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -8413,9 +8223,8 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
       <c r="AF195" s="1"/>
-      <c r="AG195" s="1"/>
-    </row>
-    <row r="196" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="1:32" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -8426,7 +8235,7 @@
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
-      <c r="K196" s="2"/>
+      <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -8448,9 +8257,8 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
       <c r="AF196" s="1"/>
-      <c r="AG196" s="1"/>
-    </row>
-    <row r="197" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="1:32" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -8461,7 +8269,7 @@
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="2"/>
+      <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -8483,9 +8291,8 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
       <c r="AF197" s="1"/>
-      <c r="AG197" s="1"/>
-    </row>
-    <row r="198" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="1:32" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -8496,7 +8303,7 @@
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
-      <c r="K198" s="2"/>
+      <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
@@ -8518,9 +8325,8 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
       <c r="AF198" s="1"/>
-      <c r="AG198" s="1"/>
-    </row>
-    <row r="199" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="1:32" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -8531,7 +8337,7 @@
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
+      <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -8553,9 +8359,8 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
       <c r="AF199" s="1"/>
-      <c r="AG199" s="1"/>
-    </row>
-    <row r="200" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="1:32" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -8566,7 +8371,7 @@
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
+      <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -8588,9 +8393,8 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
       <c r="AF200" s="1"/>
-      <c r="AG200" s="1"/>
-    </row>
-    <row r="201" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="1:32" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -8601,7 +8405,7 @@
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
+      <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -8623,9 +8427,8 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
       <c r="AF201" s="1"/>
-      <c r="AG201" s="1"/>
-    </row>
-    <row r="202" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="1:32" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -8636,7 +8439,7 @@
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
+      <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -8658,9 +8461,8 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
       <c r="AF202" s="1"/>
-      <c r="AG202" s="1"/>
-    </row>
-    <row r="203" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="1:32" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -8671,7 +8473,7 @@
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
+      <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -8693,9 +8495,8 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
       <c r="AF203" s="1"/>
-      <c r="AG203" s="1"/>
-    </row>
-    <row r="204" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="1:32" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -8706,7 +8507,7 @@
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
+      <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -8728,9 +8529,8 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
       <c r="AF204" s="1"/>
-      <c r="AG204" s="1"/>
-    </row>
-    <row r="205" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="1:32" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -8741,7 +8541,7 @@
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
+      <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
@@ -8763,9 +8563,8 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
       <c r="AF205" s="1"/>
-      <c r="AG205" s="1"/>
-    </row>
-    <row r="206" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="1:32" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -8776,7 +8575,7 @@
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
+      <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -8798,9 +8597,8 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
       <c r="AF206" s="1"/>
-      <c r="AG206" s="1"/>
-    </row>
-    <row r="207" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:32" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -8811,7 +8609,7 @@
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="2"/>
+      <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -8833,9 +8631,8 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
-      <c r="AG207" s="1"/>
-    </row>
-    <row r="208" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="1:32" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -8846,7 +8643,7 @@
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
+      <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -8868,9 +8665,8 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
-      <c r="AG208" s="1"/>
-    </row>
-    <row r="209" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="209" spans="1:32" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -8881,7 +8677,7 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
+      <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
@@ -8903,9 +8699,8 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
-      <c r="AG209" s="1"/>
-    </row>
-    <row r="210" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="210" spans="1:32" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -8916,7 +8711,7 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
+      <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -8938,9 +8733,8 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
       <c r="AF210" s="1"/>
-      <c r="AG210" s="1"/>
-    </row>
-    <row r="211" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="211" spans="1:32" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -8951,7 +8745,7 @@
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
+      <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -8973,9 +8767,8 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
       <c r="AF211" s="1"/>
-      <c r="AG211" s="1"/>
-    </row>
-    <row r="212" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="212" spans="1:32" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -8986,7 +8779,7 @@
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
+      <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -9008,9 +8801,8 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
       <c r="AF212" s="1"/>
-      <c r="AG212" s="1"/>
-    </row>
-    <row r="213" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="213" spans="1:32" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -9021,7 +8813,7 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
+      <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -9043,9 +8835,8 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
       <c r="AF213" s="1"/>
-      <c r="AG213" s="1"/>
-    </row>
-    <row r="214" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="214" spans="1:32" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -9056,7 +8847,7 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
+      <c r="K214" s="1"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -9078,9 +8869,8 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
       <c r="AF214" s="1"/>
-      <c r="AG214" s="1"/>
-    </row>
-    <row r="215" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="215" spans="1:32" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -9091,7 +8881,7 @@
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
-      <c r="K215" s="2"/>
+      <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
@@ -9113,9 +8903,8 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
       <c r="AF215" s="1"/>
-      <c r="AG215" s="1"/>
-    </row>
-    <row r="216" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="216" spans="1:32" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -9126,7 +8915,7 @@
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
+      <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -9148,9 +8937,8 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
       <c r="AF216" s="1"/>
-      <c r="AG216" s="1"/>
-    </row>
-    <row r="217" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="217" spans="1:32" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -9161,7 +8949,7 @@
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
+      <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
@@ -9183,9 +8971,8 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
       <c r="AF217" s="1"/>
-      <c r="AG217" s="1"/>
-    </row>
-    <row r="218" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="218" spans="1:32" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -9196,7 +8983,7 @@
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
+      <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -9218,9 +9005,8 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
       <c r="AF218" s="1"/>
-      <c r="AG218" s="1"/>
-    </row>
-    <row r="219" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="219" spans="1:32" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -9231,7 +9017,7 @@
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
-      <c r="K219" s="2"/>
+      <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
@@ -9253,9 +9039,8 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
       <c r="AF219" s="1"/>
-      <c r="AG219" s="1"/>
-    </row>
-    <row r="220" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="220" spans="1:32" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -9266,7 +9051,7 @@
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
-      <c r="K220" s="2"/>
+      <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -9288,9 +9073,8 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
       <c r="AF220" s="1"/>
-      <c r="AG220" s="1"/>
-    </row>
-    <row r="221" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="221" spans="1:32" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -9301,7 +9085,7 @@
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
-      <c r="K221" s="2"/>
+      <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -9323,9 +9107,8 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
       <c r="AF221" s="1"/>
-      <c r="AG221" s="1"/>
-    </row>
-    <row r="222" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="222" spans="1:32" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -9336,7 +9119,7 @@
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
+      <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -9358,9 +9141,8 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
       <c r="AF222" s="1"/>
-      <c r="AG222" s="1"/>
-    </row>
-    <row r="223" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="223" spans="1:32" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -9371,7 +9153,7 @@
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
-      <c r="K223" s="2"/>
+      <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -9393,9 +9175,8 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
       <c r="AF223" s="1"/>
-      <c r="AG223" s="1"/>
-    </row>
-    <row r="224" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="224" spans="1:32" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -9406,7 +9187,7 @@
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
+      <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -9428,9 +9209,8 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
       <c r="AF224" s="1"/>
-      <c r="AG224" s="1"/>
-    </row>
-    <row r="225" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="225" spans="1:32" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -9441,7 +9221,7 @@
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
+      <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -9463,9 +9243,8 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
       <c r="AF225" s="1"/>
-      <c r="AG225" s="1"/>
-    </row>
-    <row r="226" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="226" spans="1:32" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -9476,7 +9255,7 @@
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
+      <c r="K226" s="1"/>
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -9498,9 +9277,8 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
       <c r="AF226" s="1"/>
-      <c r="AG226" s="1"/>
-    </row>
-    <row r="227" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="227" spans="1:32" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -9511,7 +9289,7 @@
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
+      <c r="K227" s="1"/>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -9533,9 +9311,8 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
       <c r="AF227" s="1"/>
-      <c r="AG227" s="1"/>
-    </row>
-    <row r="228" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="228" spans="1:32" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -9546,7 +9323,7 @@
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
+      <c r="K228" s="1"/>
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -9568,9 +9345,8 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
       <c r="AF228" s="1"/>
-      <c r="AG228" s="1"/>
-    </row>
-    <row r="229" spans="1:33" ht="15.75" customHeight="1">
+    </row>
+    <row r="229" spans="1:32" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -9581,7 +9357,7 @@
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
+      <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -9603,19 +9379,18 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
       <c r="AF229" s="1"/>
-      <c r="AG229" s="1"/>
-    </row>
-    <row r="230" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="231" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="232" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="233" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="236" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:33" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:33" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="230" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="232" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -10367,32 +10142,23 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:P25" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A7:O26">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="20">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A9:A22"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+  <mergeCells count="11">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A8:A23"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10401,7 +10167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10411,51 +10177,51 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.35">
+    <row r="2" spans="2:3" ht="13.2">
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="13.2">
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="13.2">
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="13.2">
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="13.2">
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="13.35">
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="13.35">
-      <c r="B4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="13.35">
-      <c r="B5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="13.35">
-      <c r="B6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서2.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project04 - 요구사항 정의서2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYEONTAE\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21636" windowHeight="11664"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$26</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="117">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -246,10 +245,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>메인화면 내의 메뉴에서 강연 정보로 이동하여 상세 내용을 확인 가능, 검색, 카테고리를 통해서 특정 강연 검색 가능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>KB – P - 008</t>
   </si>
   <si>
@@ -404,10 +399,6 @@
   </si>
   <si>
     <t>강연장 정보 확인 페이지에서 해당 강연장 링크를 클릭하여 강연장 예약 가능, 날짜 선택, 시간대 선택하여 예약 및 결제, 결제 상태 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>강연 정보를 확인하는 페이지에서 강연 정보를 확인한 후, 인원 수, 좌석을 선택한 후 예약 및 결제, 결제 상태 확인</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -524,11 +515,43 @@
     <t>세미나게스트</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>메인화면 내의 메뉴에서 강연 정보로 이동하여 상세 내용을 확인 가능, 검색, 카테고리를 통해서 특정 강연 검색 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강연 정보를 확인하는 페이지에서 강연 정보를 확인한 후, 인원 수, 좌석을 선택한 후 예약 및 결제, 결제 상태 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -1031,27 +1054,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,19 +1075,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,25 +1105,37 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,24 +1355,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="87.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="87.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="20" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1389,21 +1412,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1425,19 +1448,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1582,12 +1605,12 @@
       <c r="F7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="37" t="s">
         <v>9</v>
       </c>
@@ -1621,18 +1644,18 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="33.15" customHeight="1">
+    <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="18"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1667,18 +1690,18 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="33.15" customHeight="1">
+    <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A9" s="62"/>
       <c r="B9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="56" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="18"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -1713,16 +1736,16 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" ht="33.15" customHeight="1">
+    <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A10" s="62"/>
       <c r="B10" s="65"/>
       <c r="C10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="7"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1763,10 +1786,10 @@
       <c r="C11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1807,10 +1830,10 @@
       <c r="C12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1839,18 +1862,18 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="33.15" customHeight="1">
+    <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A13" s="62"/>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="63" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1885,16 +1908,16 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="33.15" customHeight="1">
+    <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A14" s="62"/>
-      <c r="B14" s="67"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1923,16 +1946,16 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="33.15" customHeight="1">
+    <row r="15" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A15" s="62"/>
-      <c r="B15" s="67"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="56"/>
+      <c r="D15" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="49"/>
       <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1961,16 +1984,16 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" ht="33.15" customHeight="1">
+    <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A16" s="62"/>
-      <c r="B16" s="67"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="56"/>
+      <c r="D16" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="49"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1999,19 +2022,21 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" ht="33.15" customHeight="1">
+    <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A17" s="62"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2022,10 +2047,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2047,15 +2072,17 @@
     </row>
     <row r="18" spans="1:32" ht="33.6" customHeight="1">
       <c r="A18" s="62"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="33"/>
@@ -2066,10 +2093,10 @@
         <v>2</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2089,17 +2116,19 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="28.8" customHeight="1">
+    <row r="19" spans="1:32" ht="28.9" customHeight="1">
       <c r="A19" s="62"/>
-      <c r="B19" s="68"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -2110,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="N19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2133,17 +2162,19 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="1:32" ht="28.8" customHeight="1">
+    <row r="20" spans="1:32" ht="28.9" customHeight="1">
       <c r="A20" s="62"/>
-      <c r="B20" s="68"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="33"/>
@@ -2154,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2177,17 +2208,19 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" ht="28.8" customHeight="1">
+    <row r="21" spans="1:32" ht="28.9" customHeight="1">
       <c r="A21" s="62"/>
-      <c r="B21" s="68"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="34"/>
@@ -2215,19 +2248,21 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="1:32" ht="28.8" customHeight="1">
+    <row r="22" spans="1:32" ht="28.9" customHeight="1">
       <c r="A22" s="62"/>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="D22" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2238,10 +2273,10 @@
         <v>1</v>
       </c>
       <c r="N22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2261,17 +2296,19 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="33.15" customHeight="1">
+    <row r="23" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A23" s="62"/>
-      <c r="B23" s="70"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -2282,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2305,20 +2342,20 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" ht="33.15" customHeight="1">
+    <row r="24" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A24" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="C24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="59"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="35"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2347,18 +2384,18 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" ht="33.15" customHeight="1">
+    <row r="25" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A25" s="62"/>
       <c r="B25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="24"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2370,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="1"/>
@@ -2391,18 +2428,18 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" ht="33.15" customHeight="1">
+    <row r="26" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A26" s="62"/>
       <c r="B26" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="7"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2414,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="1"/>
@@ -2435,19 +2472,21 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:32" ht="33.15" customHeight="1">
+    <row r="27" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A27" s="62"/>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -2475,17 +2514,19 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" ht="33.15" customHeight="1">
+    <row r="28" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A28" s="62"/>
-      <c r="B28" s="73"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2515,14 +2556,14 @@
     </row>
     <row r="29" spans="1:32" ht="45.75" customHeight="1">
       <c r="A29" s="62"/>
-      <c r="B29" s="74" t="s">
-        <v>94</v>
+      <c r="B29" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="60" t="s">
         <v>73</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="G29" s="1"/>
@@ -2552,12 +2593,12 @@
     </row>
     <row r="30" spans="1:32" ht="44.1" customHeight="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="74"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="60" t="s">
         <v>89</v>
-      </c>
-      <c r="D30" s="75" t="s">
-        <v>91</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="1"/>
@@ -2588,16 +2629,18 @@
     <row r="31" spans="1:32" ht="52.5" customHeight="1">
       <c r="A31" s="62"/>
       <c r="B31" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>92</v>
-      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -2661,7 +2704,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2669,7 +2712,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
@@ -2697,7 +2740,7 @@
     <row r="34" spans="1:32" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2705,7 +2748,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
@@ -2739,7 +2782,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="1"/>
@@ -2773,7 +2816,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
@@ -2807,7 +2850,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
@@ -2902,7 +2945,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
@@ -2937,10 +2980,10 @@
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
@@ -2975,10 +3018,10 @@
     <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
@@ -3013,10 +3056,10 @@
     <row r="43" spans="1:32" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
@@ -3051,10 +3094,10 @@
     <row r="44" spans="1:32" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
@@ -3089,10 +3132,10 @@
     <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
@@ -10148,6 +10191,8 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A8:A23"/>
     <mergeCell ref="B13:B16"/>
@@ -10157,8 +10202,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10177,51 +10220,51 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="13.2">
+    <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="12.75">
+      <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="13.2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:3" ht="12.75">
+      <c r="B4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="13.2">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:3" ht="12.75">
+      <c r="B5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="13.2">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:3" ht="12.75">
+      <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="13.2">
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
